--- a/backend/data/2024-1.xlsx
+++ b/backend/data/2024-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\dkhp-iuh-edu-vn\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19081E61-94E4-4B1C-B10F-AA55711C6CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75685C-9D9B-44A7-A4AE-CA798B2EB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{02EF117C-553B-4DD7-84CE-F60C11302335}"/>
   </bookViews>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8E1DB4-7413-4561-95DC-BC2E4D393355}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,30 +711,30 @@
       </c>
       <c r="E2" s="3" t="str">
         <f ca="1">RANDBETWEEN(10000010,10000036)&amp;""</f>
-        <v>10000021</v>
+        <v>10000020</v>
       </c>
       <c r="F2" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000010,10000036) &amp; "," &amp; RANDBETWEEN(10000010,10000036) &amp; "," &amp; RANDBETWEEN(10000010,10000036)</f>
-        <v>10000031,10000012,10000024</v>
+        <v>10000024,10000022,10000027</v>
       </c>
       <c r="G2" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,X1_02,2024-01-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_04,2024-01-01T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I2" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_05,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_04,2024-02-05T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="J2" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_04,2024-02-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_07,2024-02-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="I2:K26" ca="1" si="0">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_07,2024-02-04T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_08,2024-02-01T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -752,30 +752,30 @@
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" ref="E3:E38" ca="1" si="1">RANDBETWEEN(10000010,10000036)&amp;""</f>
-        <v>10000012</v>
+        <v>10000031</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F25" ca="1" si="2">RANDBETWEEN(10000010,10000036) &amp; "," &amp; RANDBETWEEN(10000010,10000036) &amp; "," &amp; RANDBETWEEN(10000010,10000036)</f>
-        <v>10000015,10000023,10000018</v>
+        <v>10000028,10000025,10000035</v>
       </c>
       <c r="G3" s="5">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_7_TO_9,X1_09,2024-01-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_03,2024-01-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_03,2024-02-06T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_01,2024-02-02T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_07,2024-02-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_01,2024-02-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_07,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -793,30 +793,30 @@
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000023</v>
+        <v>10000026</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000014,10000033,10000011</v>
+        <v>10000033,10000023,10000034</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
       </c>
       <c r="H4" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_10_TO_12,X1_05,2024-01-05T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_04,2024-01-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_02,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_08,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_06,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_08,2024-02-02T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_09,2024-02-05T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_01,2024-02-05T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -834,30 +834,30 @@
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000019</v>
+        <v>10000013</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000027,10000011,10000029</v>
+        <v>10000030,10000035,10000026</v>
       </c>
       <c r="G5" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H12" ca="1" si="3">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,X1_08,2024-01-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_04,2024-01-06T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_03,2024-02-02T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_07,2024-02-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_02,2024-02-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_03,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_01,2024-02-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_04,2024-02-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -875,30 +875,30 @@
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000016</v>
+        <v>10000011</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000029,10000017,10000018</v>
+        <v>10000019,10000017,10000025</v>
       </c>
       <c r="G6" s="5">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_7_TO_9,X1_01,2024-01-05T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_07,2024-01-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_08,2024-02-02T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_03,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_01,2024-02-05T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_04,2024-02-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_02,2024-02-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_02,2024-02-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -916,30 +916,30 @@
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000024</v>
+        <v>10000028</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000034,10000016,10000035</v>
+        <v>10000029,10000035,10000024</v>
       </c>
       <c r="G7" s="5">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_10_TO_12,X1_06,2024-01-06T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_07,2024-01-04T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_04,2024-02-03T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_09,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_07,2024-02-03T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_04,2024-02-05T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -957,30 +957,30 @@
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000012</v>
+        <v>10000028</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000034,10000014,10000021</v>
+        <v>10000011,10000019,10000020</v>
       </c>
       <c r="G8" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_4_TO_6,X1_05,2024-01-04T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_01,2024-01-04T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_01,2024-02-02T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_08,2024-02-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_04,2024-02-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_06,2024-02-02T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_04,2024-02-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_09,2024-02-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1002,26 +1002,26 @@
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000033,10000014,10000020</v>
+        <v>10000023,10000024,10000022</v>
       </c>
       <c r="G9" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_4_TO_6,X1_09,2024-01-03T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_05,2024-01-03T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_06,2024-02-03T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_03,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-06T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_02,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_07,2024-02-03T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-03T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1039,30 +1039,30 @@
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000024</v>
+        <v>10000036</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000012,10000015,10000035</v>
+        <v>10000015,10000015,10000034</v>
       </c>
       <c r="G10" s="5">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_1_TO_3,X1_03,2024-01-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_06,2024-01-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_05,2024-02-03T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_01,2024-02-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_02,2024-02-06T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_09,2024-02-07T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_02,2024-02-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-06T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,30 +1080,30 @@
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000019</v>
+        <v>10000024</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000030,10000035,10000028</v>
+        <v>10000025,10000030,10000025</v>
       </c>
       <c r="G11" s="5">
         <v>3</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_1_TO_3,X1_05,2024-01-01T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_04,2024-01-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_08,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_07,2024-02-06T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_05,2024-02-05T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_02,2024-02-05T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_03,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_01,2024-02-03T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1121,30 +1121,30 @@
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000017</v>
+        <v>10000028</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000022,10000035,10000024</v>
+        <v>10000017,10000014,10000028</v>
       </c>
       <c r="G12" s="5">
         <v>3</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HOUR_1_TO_3,X1_09,2024-01-02T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_06,2024-01-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_03,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_07,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_03,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_06,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_09,2024-02-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1162,30 +1162,30 @@
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000022</v>
+        <v>10000017</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000021,10000022,10000012</v>
+        <v>10000025,10000011,10000035</v>
       </c>
       <c r="G13" s="5">
         <v>3</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" ref="H13:H54" ca="1" si="4">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"X1_01", "X1_02", "X1_03", "X1_04", "X1_05","X1_06", "X1_07", "X1_08", "X1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-01-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_10_TO_12,X1_02,2024-01-05T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_03,2024-01-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_08,2024-02-04T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_08,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_03,2024-02-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_08,2024-02-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_07,2024-02-04T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_09,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1203,30 +1203,30 @@
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000012</v>
+        <v>10000024</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000027,10000015,10000028</v>
+        <v>10000012,10000031,10000018</v>
       </c>
       <c r="G14" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_10_TO_12,X1_04,2024-01-07T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_07,2024-01-02T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_02,2024-02-03T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_01,2024-02-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_04,2024-02-03T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_08,2024-02-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_06,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_01,2024-02-03T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1244,30 +1244,30 @@
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000022</v>
+        <v>10000012</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000032,10000025,10000029</v>
+        <v>10000027,10000032,10000032</v>
       </c>
       <c r="G15" s="5">
         <v>3</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_06,2024-01-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_08,2024-01-03T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_02,2024-02-05T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_05,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_01,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_08,2024-02-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_06,2024-02-05T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_03,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1285,30 +1285,30 @@
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000033</v>
+        <v>10000015</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000019,10000020,10000029</v>
+        <v>10000031,10000028,10000024</v>
       </c>
       <c r="G16" s="5">
         <v>3</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_10_TO_12,X1_08,2024-01-05T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_03,2024-01-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_03,2024-02-05T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_06,2024-02-01T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_09,2024-02-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_08,2024-02-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_04,2024-02-02T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,30 +1326,30 @@
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000022</v>
+        <v>10000029</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000016,10000033,10000014</v>
+        <v>10000019,10000023,10000026</v>
       </c>
       <c r="G17" s="5">
         <v>3</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_01,2024-01-05T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_04,2024-01-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_02,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_09,2024-02-03T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_04,2024-02-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_02,2024-02-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_02,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1367,30 +1367,30 @@
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000033</v>
+        <v>10000017</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000027,10000025,10000019</v>
+        <v>10000035,10000019,10000010</v>
       </c>
       <c r="G18" s="5">
         <v>3</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_02,2024-01-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_04,2024-01-07T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_01,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_02,2024-02-06T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_04,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_05,2024-02-05T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_05,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_04,2024-02-03T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1408,30 +1408,30 @@
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000011</v>
+        <v>10000014</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000024,10000015,10000024</v>
+        <v>10000012,10000036,10000013</v>
       </c>
       <c r="G19" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_07,2024-01-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_09,2024-01-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_03,2024-02-01T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_09,2024-02-06T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_03,2024-02-07T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_09,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_09,2024-02-01T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_04,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1449,30 +1449,30 @@
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000024</v>
+        <v>10000029</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000021,10000018,10000020</v>
+        <v>10000028,10000021,10000018</v>
       </c>
       <c r="G20" s="5">
         <v>3</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_02,2024-01-06T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_03,2024-01-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_08,2024-02-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_07,2024-02-07T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_08,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_02,2024-02-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000021</v>
+        <v>10000018</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000034,10000013,10000017</v>
+        <v>10000028,10000029,10000015</v>
       </c>
       <c r="G21" s="5">
         <v>3</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_06,2024-01-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_09,2024-01-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_02,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_05,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_01,2024-02-03T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_01,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_07,2024-02-05T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_05,2024-02-02T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1531,30 +1531,30 @@
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000016</v>
+        <v>10000011</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000023,10000034,10000018</v>
+        <v>10000022,10000029,10000012</v>
       </c>
       <c r="G22" s="5">
         <v>3</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_07,2024-01-07T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_05,2024-01-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_01,2024-02-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_08,2024-02-03T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_05,2024-02-07T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_09,2024-02-05T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_03,2024-02-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1572,30 +1572,30 @@
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000031</v>
+        <v>10000018</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000035,10000034,10000018</v>
+        <v>10000027,10000028,10000036</v>
       </c>
       <c r="G23" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_02,2024-01-02T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_08,2024-01-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_01,2024-02-02T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_09,2024-02-06T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_05,2024-02-03T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_04,2024-02-06T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_02,2024-02-06T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_05,2024-02-04T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1613,30 +1613,30 @@
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000016</v>
+        <v>10000021</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000031,10000016,10000029</v>
+        <v>10000035,10000032,10000013</v>
       </c>
       <c r="G24" s="5">
         <v>3</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_06,2024-01-05T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_09,2024-01-07T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_06,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_02,2024-02-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_07,2024-02-01T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_02,2024-02-03T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_03,2024-02-05T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,30 +1654,30 @@
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000023</v>
+        <v>10000033</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10000020,10000011,10000013</v>
+        <v>10000017,10000021,10000026</v>
       </c>
       <c r="G25" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_09,2024-01-02T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_07,2024-01-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_09,2024-02-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_01,2024-02-06T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_7_TO_9,H1_05,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_06,2024-02-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_4_TO_6,H1_06,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_04,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1695,30 +1695,30 @@
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000015</v>
+        <v>10000035</v>
       </c>
       <c r="F26" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000010,10000036) &amp; "," &amp; RANDBETWEEN(10000010,10000036) &amp; "," &amp; RANDBETWEEN(10000010,10000036)</f>
-        <v>10000013,10000033,10000010</v>
+        <v>10000027,10000013,10000021</v>
       </c>
       <c r="G26" s="5">
         <v>3</v>
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_08,2024-01-01T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_02,2024-01-01T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_1_TO_3,H1_09,2024-02-01T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_02,2024-02-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HOUR_10_TO_12,H1_09,2024-02-05T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_05,2024-02-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="K26" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_10_TO_12,H1_03,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_09,2024-02-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E27" s="3" t="str">
         <f ca="1">RANDBETWEEN(10000010,10000036)&amp;""</f>
-        <v>10000034</v>
+        <v>10000010</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="5">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_08,2024-01-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_01,2024-01-01T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000023</v>
+        <v>10000025</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="5">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_08,2024-01-02T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_01,2024-01-07T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000016</v>
+        <v>10000015</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="5">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_08,2024-01-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_03,2024-01-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1823,15 +1823,15 @@
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000014</v>
+        <v>10000013</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_01,2024-01-07T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_09,2024-01-05T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000021</v>
+        <v>10000016</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="5">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_08,2024-01-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_02,2024-01-07T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000031</v>
+        <v>10000015</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="5">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_06,2024-01-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_06,2024-01-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1910,15 +1910,15 @@
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000021</v>
+        <v>10000034</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_10_TO_12,X1_04,2024-01-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_05,2024-01-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000032</v>
+        <v>10000030</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="5">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_02,2024-01-05T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_08,2024-01-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000011</v>
+        <v>10000027</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_02,2024-01-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_02,2024-01-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1997,15 +1997,15 @@
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000016</v>
+        <v>10000015</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_09,2024-01-04T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_01,2024-01-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000026</v>
+        <v>10000019</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="5">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_10_TO_12,X1_09,2024-01-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_09,2024-01-05T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10000014</v>
+        <v>10000013</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="5">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_09,2024-01-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_09,2024-01-06T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2084,30 +2084,30 @@
       </c>
       <c r="E39" s="3" t="str">
         <f ca="1">RANDBETWEEN(10000037,10000069)&amp;""</f>
-        <v>10000053</v>
+        <v>10000044</v>
       </c>
       <c r="F39" s="2" t="str">
         <f ca="1">RANDBETWEEN(10000037,10000069) &amp; "," &amp; RANDBETWEEN(10000037,10000069) &amp; "," &amp; RANDBETWEEN(10000037,10000069)</f>
-        <v>10000050,10000038,10000044</v>
+        <v>10000039,10000068,10000045</v>
       </c>
       <c r="G39" s="5">
         <v>3</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_08,2024-01-05T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_03,2024-01-06T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I39" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_7_TO_9,H1_02,2024-02-01T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_04,2024-02-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" ref="J39:K40" ca="1" si="5">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_02,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_02,2024-02-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="K39" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>HOUR_10_TO_12,H1_04,2024-02-02T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_05,2024-02-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2129,26 +2129,26 @@
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" ref="F40:F54" ca="1" si="7">RANDBETWEEN(10000037,10000069) &amp; "," &amp; RANDBETWEEN(10000037,10000069) &amp; "," &amp; RANDBETWEEN(10000037,10000069)</f>
-        <v>10000069,10000058,10000066</v>
+        <v>10000040,10000064,10000056</v>
       </c>
       <c r="G40" s="5">
         <v>3</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_04,2024-01-07T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_09,2024-01-06T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I40" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_05,2024-02-05T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_01,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>HOUR_1_TO_3,H1_05,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_09,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="K40" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>HOUR_4_TO_6,H1_09,2024-02-05T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_06,2024-02-07T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2166,15 +2166,15 @@
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000042</v>
+        <v>10000045</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_10_TO_12,X1_06,2024-01-04T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_06,2024-01-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2195,30 +2195,30 @@
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000054</v>
+        <v>10000059</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000049,10000047,10000067</v>
+        <v>10000037,10000058,10000054</v>
       </c>
       <c r="G42" s="5">
         <v>3</v>
       </c>
       <c r="H42" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_10_TO_12,X1_01,2024-01-02T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_09,2024-01-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="I42" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_09,2024-02-05T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_05,2024-02-04T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" ref="J42:K42" ca="1" si="8">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_09,2024-02-05T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_06,2024-02-03T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K42" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>HOUR_7_TO_9,H1_01,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_02,2024-02-06T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000064</v>
+        <v>10000059</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="5">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_04,2024-01-04T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_05,2024-01-03T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2265,30 +2265,30 @@
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000054</v>
+        <v>10000051</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000065,10000048,10000039</v>
+        <v>10000053,10000053,10000063</v>
       </c>
       <c r="G44" s="5">
         <v>3</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_7_TO_9,X1_04,2024-01-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_04,2024-01-05T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I44" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_04,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_09,2024-02-03T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" ref="J44:K44" ca="1" si="9">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_7_TO_9,H1_04,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_04,2024-02-05T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="K44" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>HOUR_7_TO_9,H1_05,2024-02-04T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_08,2024-02-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000064</v>
+        <v>10000045</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000058,10000051,10000063</v>
+        <v>10000044,10000058,10000045</v>
       </c>
       <c r="G45" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_02,2024-01-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_01,2024-01-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="I45" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_05,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_02,2024-02-07T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000042</v>
+        <v>10000039</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="5">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_02,2024-01-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_09,2024-01-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2374,26 +2374,26 @@
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000063,10000065,10000039</v>
+        <v>10000068,10000051,10000051</v>
       </c>
       <c r="G47" s="5">
         <v>3</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_01,2024-01-07T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_02,2024-01-02T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="I47" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_7_TO_9,H1_01,2024-02-07T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_08,2024-02-07T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" ref="J47:K48" ca="1" si="10">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_03,2024-02-01T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_08,2024-02-04T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="K47" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>HOUR_1_TO_3,H1_09,2024-02-01T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_08,2024-02-03T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2411,30 +2411,30 @@
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000049</v>
+        <v>10000053</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000054,10000051,10000068</v>
+        <v>10000062,10000058,10000068</v>
       </c>
       <c r="G48" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_05,2024-01-05T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_08,2024-01-03T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="I48" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_10_TO_12,H1_07,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_09,2024-02-05T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="J48" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>HOUR_4_TO_6,H1_08,2024-02-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_04,2024-02-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="K48" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>HOUR_1_TO_3,H1_03,2024-02-02T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_01,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000053</v>
+        <v>10000042</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="5">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_04,2024-01-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_04,2024-01-06T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2481,30 +2481,30 @@
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000047</v>
+        <v>10000040</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000047,10000038,10000047</v>
+        <v>10000043,10000053,10000053</v>
       </c>
       <c r="G50" s="5">
         <v>3</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_06,2024-01-06T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,X1_04,2024-01-02T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="I50" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_01,2024-02-02T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_03,2024-02-07T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
       </c>
       <c r="J50" s="2" t="str">
         <f t="shared" ref="J50:K50" ca="1" si="11">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_01,2024-02-07T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_05,2024-02-04T00:00:00.000Z,2024-04-01T00:00:00.000Z</v>
       </c>
       <c r="K50" s="2" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>HOUR_1_TO_3,H1_04,2024-02-04T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_07,2024-02-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000058</v>
+        <v>10000065</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="5">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_06,2024-01-01T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,X1_09,2024-01-03T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2551,30 +2551,30 @@
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000043</v>
+        <v>10000048</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000051,10000051,10000055</v>
+        <v>10000066,10000059,10000068</v>
       </c>
       <c r="G52" s="5">
         <v>3</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_09,2024-01-06T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_06,2024-01-05T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
       </c>
       <c r="I52" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_7_TO_9,H1_06,2024-02-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
+        <v>HOUR_1_TO_3,H1_07,2024-02-04T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:K52" ca="1" si="12">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_1_TO_3,H1_02,2024-02-07T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_01,2024-02-04T00:00:00.000Z,2024-04-04T00:00:00.000Z</v>
       </c>
       <c r="K52" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>HOUR_7_TO_9,H1_04,2024-02-01T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_03,2024-02-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2592,15 +2592,15 @@
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000067</v>
+        <v>10000045</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_1_TO_3,X1_07,2024-01-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,X1_04,2024-01-01T00:00:00.000Z,2024-04-03T00:00:00.000Z</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2621,30 +2621,30 @@
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>10000050</v>
+        <v>10000039</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10000047,10000050,10000064</v>
+        <v>10000064,10000043,10000063</v>
       </c>
       <c r="G54" s="5">
         <v>3</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>HOUR_4_TO_6,X1_07,2024-01-03T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,X1_03,2024-01-02T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="I54" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_7_TO_9,H1_06,2024-02-05T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
+        <v>HOUR_7_TO_9,H1_01,2024-02-04T00:00:00.000Z,2024-04-06T00:00:00.000Z</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" ref="J54:K54" ca="1" si="13">CHOOSE(RANDBETWEEN(1,4),"HOUR_1_TO_3","HOUR_4_TO_6","HOUR_7_TO_9","HOUR_10_TO_12")&amp; "," &amp;CHOOSE(RANDBETWEEN(1,9),"H1_01", "H1_02", "H1_03", "H1_04", "H1_05","H1_06", "H1_07", "H1_08", "H1_09")&amp; "," &amp;TEXT(DATEVALUE("2024-02-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")&amp; "," &amp;TEXT(DATEVALUE("2024-04-01") + RANDBETWEEN(0,6), "yyyy-mm-dd\Thh:mm:ss.000\Z")</f>
-        <v>HOUR_4_TO_6,H1_07,2024-02-03T00:00:00.000Z,2024-04-05T00:00:00.000Z</v>
+        <v>HOUR_4_TO_6,H1_08,2024-02-03T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
       <c r="K54" s="2" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>HOUR_4_TO_6,H1_01,2024-02-02T00:00:00.000Z,2024-04-07T00:00:00.000Z</v>
+        <v>HOUR_10_TO_12,H1_03,2024-02-07T00:00:00.000Z,2024-04-02T00:00:00.000Z</v>
       </c>
     </row>
   </sheetData>
